--- a/FP3/salary_by_major_0818.xlsx
+++ b/FP3/salary_by_major_0818.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolan/MACALESTER/Stat 456/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolan/MACALESTER/Stat 456/stat456_project/FP3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0553EF4-CE52-DE47-8D83-1C6569AD6EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8451F6-468C-3E40-AD59-7DE2C7E0EA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AveragesMediansPercents" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Current job, as of B&amp;B:08/18 interview: Annualized salary</t>
   </si>
@@ -62,6 +75,12 @@
   </si>
   <si>
     <t>STANDARD ERRORS (BRR)</t>
+  </si>
+  <si>
+    <t>CI_low</t>
+  </si>
+  <si>
+    <t>CI_high</t>
   </si>
 </sst>
 </file>
@@ -111,9 +130,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -134,10 +150,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +474,7 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -463,7 +482,7 @@
     <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -473,150 +492,224 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="4"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>102278.6118313</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>5928.7309664000004</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7">
+        <f>B3-(C3*1.96)</f>
+        <v>90658.299137156006</v>
+      </c>
+      <c r="E3">
+        <f>B3+(C3*1.96)</f>
+        <v>113898.924525444</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>103162.6979647</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>3457.7648502000002</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D12" si="0">B4-(C4*1.96)</f>
+        <v>96385.478858307994</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E12" si="1">B4+(C4*1.96)</f>
+        <v>109939.917071092</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>82285.490364500001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>2306.5078188000002</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>77764.735039652005</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>86806.245689347998</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>71828.018259999997</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>4966.2379578</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>62094.191862711996</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>81561.844657287991</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>70404.698014299996</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1582.1864674000001</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>67303.612538196001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>73505.783490403992</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>59862.799652399997</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1777.9233036999999</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>56378.069977147999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>63347.529327651995</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>71735.971175300001</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1842.2237702</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>68125.212585707995</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>75346.729764892007</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>84523.101924000002</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1932.2193612000001</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>80735.951976048003</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>88310.251871952001</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>50567.932875799997</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1054.348117</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>48501.410566480001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>52634.455185119994</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>62630.593056999998</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>1451.9813041</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>59784.709700963998</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>65476.476413035998</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -649,221 +742,221 @@
       <c r="A27" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="6"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="6"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="6"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="6"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="6"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="6"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="6"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="6"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="6"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="6"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="6"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="7"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="7"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="7"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="7"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="7"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="7"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="7"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="7"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="7"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="4"/>
-      <c r="C62" s="8"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="7"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="5"/>
+      <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="4"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="4"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="4"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
